--- a/biology/Botanique/Gotenhafen_(rose)/Gotenhafen_(rose).xlsx
+++ b/biology/Botanique/Gotenhafen_(rose)/Gotenhafen_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-'Gotenhafen' est un cultivar de rosier obtenu en 1940 par le rosiériste allemand Mathias Tantau (1882-1953). Son nom rend hommage au port de Gotenhafen (aujourd'hui Gdynia)[1]. Il est issu de 'Mevrouw Nathalie Nypels' (Leenders, 1919) x 'Kardinal' (Krause, 1933)[2].
+'Gotenhafen' est un cultivar de rosier obtenu en 1940 par le rosiériste allemand Mathias Tantau (1882-1953). Son nom rend hommage au port de Gotenhafen (aujourd'hui Gdynia). Il est issu de 'Mevrouw Nathalie Nypels' (Leenders, 1919) x 'Kardinal' (Krause, 1933).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce rosier floribunda présente un buisson érigé et touffu, très ramifié. Ses fleurs regroupées en généreux bouquets sont de couleur rose carmin, de taille moyenne (6-8 cm), semi-doubles (8-15 pétales)[3].
-Ce rosier très florifère a connu un grand succès dans les années 1940-1960, pour sa couleur originale et sa bonne remontée[2], ainsi que sa grande résistance aux maladies. Il a besoin d'une exposition ensoleillée. Il supporte les grands froids (-25°) si son pied est bien protégé en hiver.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce rosier floribunda présente un buisson érigé et touffu, très ramifié. Ses fleurs regroupées en généreux bouquets sont de couleur rose carmin, de taille moyenne (6-8 cm), semi-doubles (8-15 pétales).
+Ce rosier très florifère a connu un grand succès dans les années 1940-1960, pour sa couleur originale et sa bonne remontée, ainsi que sa grande résistance aux maladies. Il a besoin d'une exposition ensoleillée. Il supporte les grands froids (-25°) si son pied est bien protégé en hiver.
 </t>
         </is>
       </c>
